--- a/reseau/Plan_IP_Projet-Scientifique.xlsx
+++ b/reseau/Plan_IP_Projet-Scientifique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan.wrona/Documents/S7/PRJSC_Equipe_9/Réseau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan.wrona/Documents/S7/PRJSC_Equipe_9/reseau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093F5FB-D85A-1644-9FA8-AE6167E9479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7011034F-15C3-9F42-BC8B-6DA0208333B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{B5A98876-AAC4-4546-BAF6-9E0852D08E9E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
   <si>
     <t>Routeur</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>opsf R5 R6 pas redistribuer router default</t>
-  </si>
-  <si>
-    <t>route static ne doivent pas être partager dans le cœur de réseau</t>
   </si>
   <si>
     <t>Préval 1 ;</t>
@@ -531,7 +528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -819,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -830,7 +827,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1036,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
@@ -1057,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
         <v>89</v>
@@ -1077,9 +1074,6 @@
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1096,10 +1090,10 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1119,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1140,10 +1134,10 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1449,16 +1443,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,21 +1460,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D33818556F4C244A6EEB71F88B15EA5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f34fc0fe6772ecd9a6cf16cff8958aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f37f15-a843-4540-917e-878f63ea0b31" xmlns:ns4="67894206-57fb-4371-9e36-d217fa73d4fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9e29f148272546a06b9368b70506f09" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f37f15-a843-4540-917e-878f63ea0b31"/>
@@ -1665,10 +1644,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665FCD9F-F4B5-4119-B024-0F192C8989B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF4B55-4041-497E-8FA7-57BD8622FD03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f37f15-a843-4540-917e-878f63ea0b31"/>
+    <ds:schemaRef ds:uri="67894206-57fb-4371-9e36-d217fa73d4fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1691,20 +1696,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF4B55-4041-497E-8FA7-57BD8622FD03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665FCD9F-F4B5-4119-B024-0F192C8989B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f1f37f15-a843-4540-917e-878f63ea0b31"/>
-    <ds:schemaRef ds:uri="67894206-57fb-4371-9e36-d217fa73d4fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>